--- a/data/trans_camb/P40_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P40_R-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>1.151369638355082</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-1.431309115875401</v>
+        <v>-1.431309115875434</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5792029035271112</v>
+        <v>-0.5841517838915465</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.733816635392125</v>
+        <v>-3.559555261993468</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.071816054143159</v>
+        <v>-2.723764765811983</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.351179536377188</v>
+        <v>-3.740487085796566</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.1970507283759949</v>
+        <v>-0.03485242746805612</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-10.82705736468109</v>
+        <v>-10.92613450017625</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.366819856783394</v>
+        <v>-1.152619590763732</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.000275069583993</v>
+        <v>-1.016935833205286</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.700412173827194</v>
+        <v>-5.160729833330969</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.833296611245403</v>
+        <v>3.883535885821907</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.088575574839553</v>
+        <v>2.031016072248868</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.781451323178989</v>
+        <v>3.896627805611409</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.72357625764212</v>
+        <v>3.552513097033972</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.164799470239776</v>
+        <v>6.271873102226526</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5606567130854625</v>
+        <v>0.3738643911095657</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.866652513208489</v>
+        <v>3.095968191336415</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.151350605064217</v>
+        <v>3.188808267708402</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.419241994380725</v>
+        <v>1.517313721566778</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.01221521199795697</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.01518517051570401</v>
+        <v>-0.01518517051570436</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.005689318076678202</v>
+        <v>-0.0060071870029579</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.03844396994373233</v>
+        <v>-0.03659612832653829</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.03129248564677561</v>
+        <v>-0.02833568516981779</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.03575864103881213</v>
+        <v>-0.04007310486773069</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.002191726953952457</v>
+        <v>-0.0003521708372290507</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1167045886687956</v>
+        <v>-0.1157475368178171</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01430179898208996</v>
+        <v>-0.01208035841265271</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.01059101461431023</v>
+        <v>-0.01062658533406175</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.04973154921949764</v>
+        <v>-0.05455613911961344</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.04063830887685795</v>
+        <v>0.04086755999611338</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.02195421262565939</v>
+        <v>0.02121890539771062</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.03988458734007242</v>
+        <v>0.0408832454592158</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.04132710863288825</v>
+        <v>0.03911083329568905</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06801245803235287</v>
+        <v>0.06928865908616325</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005939591352541329</v>
+        <v>0.00406830650010152</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03081193138715706</v>
+        <v>0.03323419282302519</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.03400540324509019</v>
+        <v>0.03435580252712935</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.01516579649164026</v>
+        <v>0.01615020534693892</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.4107361384400821</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.923673632214062</v>
+        <v>-1.923673632214051</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>3.978815427733973</v>
@@ -878,7 +878,7 @@
         <v>3.224287229420597</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.799613413386958</v>
+        <v>1.799613413386947</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.162533187094</v>
+        <v>-4.109511136005373</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.098372564525091</v>
+        <v>-2.130036045433802</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.410808032428703</v>
+        <v>-5.613415509986652</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3086250894990975</v>
+        <v>0.1438003011570773</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.351275973595028</v>
+        <v>3.142665850223307</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.47887069251306</v>
+        <v>2.263209824466501</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.378220489157662</v>
+        <v>-1.100411717868105</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.027772637877815</v>
+        <v>1.305529670067334</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.8965706138806891</v>
+        <v>-0.6897406145082683</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.892931778549848</v>
+        <v>0.8311888005575868</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.673442830974524</v>
+        <v>2.818024818058281</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.210683180127947</v>
+        <v>1.051549501972305</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.704290438445652</v>
+        <v>7.652234313440159</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>10.12012518139892</v>
+        <v>10.18482313830168</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.897283330792154</v>
+        <v>9.746429577030243</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.080082420778067</v>
+        <v>3.265328402545567</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.295131498383377</v>
+        <v>5.273144581315012</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.113830058402648</v>
+        <v>4.052168752272657</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.004321134208065323</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.02023793662004755</v>
+        <v>-0.02023793662004743</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.04577374922254496</v>
@@ -983,7 +983,7 @@
         <v>0.0353088475329893</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.01970738681461114</v>
+        <v>0.01970738681461101</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.04333207804502332</v>
+        <v>-0.04304690738452785</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.0218489145201905</v>
+        <v>-0.02210869023916041</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05654809297362244</v>
+        <v>-0.05843422982183332</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.004871940013356488</v>
+        <v>0.001518187982283878</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03759848617180992</v>
+        <v>0.03556385299268792</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02866271670492127</v>
+        <v>0.02561139743418267</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01444622961902452</v>
+        <v>-0.01191874958244718</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.01154893922302025</v>
+        <v>0.01413933932420844</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.009856379073099544</v>
+        <v>-0.007522813763822534</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.009476335388946475</v>
+        <v>0.008755099645548662</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.0284013871564425</v>
+        <v>0.03016024742254099</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.01288610673470445</v>
+        <v>0.01122811554645031</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.09396936495889174</v>
+        <v>0.0895213501203814</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1198795293363246</v>
+        <v>0.1217655315360035</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1167366610910675</v>
+        <v>0.1167637015451338</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03429836479684662</v>
+        <v>0.03619675844969614</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.05888217428254432</v>
+        <v>0.05872066377911338</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.04527396123278785</v>
+        <v>0.04498032458125007</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.045415438056773</v>
+        <v>-2.142506388644356</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.06918838338664426</v>
+        <v>-0.3443183294001964</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06262014619417092</v>
+        <v>0.0117870034940133</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.545621615265646</v>
+        <v>-1.528305956710845</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.701138485973272</v>
+        <v>4.793144552759571</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.042518272409737</v>
+        <v>1.720880051558326</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.564170352245986</v>
+        <v>-0.5864653933596713</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.259366060887489</v>
+        <v>3.029917797204693</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.288166753872884</v>
+        <v>1.752181941194497</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.51709839657271</v>
+        <v>4.89908562735247</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.553447552184348</v>
+        <v>6.438621938168838</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.773824913416215</v>
+        <v>6.985372488437597</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.069773153607627</v>
+        <v>6.920253975544957</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>12.21356685502587</v>
+        <v>12.60691911087846</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.497217890028264</v>
+        <v>9.483888491887079</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.970414042220002</v>
+        <v>4.879938828778274</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.605526220769825</v>
+        <v>8.322152355864757</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.44045843749392</v>
+        <v>7.057948800503349</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.02273574119678533</v>
+        <v>-0.02391557157010217</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.0006696876229849239</v>
+        <v>-0.003739751962385353</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.001653364685055986</v>
+        <v>0.0001297787271762806</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.01860679682608356</v>
+        <v>-0.01850641279954618</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05731937771876657</v>
+        <v>0.05748228763274357</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02463223222635132</v>
+        <v>0.02045395296233466</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.006632643963284253</v>
+        <v>-0.006660600531897131</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.03749756692375178</v>
+        <v>0.03520606522380187</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.02689333090475935</v>
+        <v>0.02018311212109837</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.05213343538416725</v>
+        <v>0.05680777162427012</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.07498052609431068</v>
+        <v>0.07486168327908878</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.07798743348928258</v>
+        <v>0.08080201219553494</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.0897361158871175</v>
+        <v>0.08852898130631583</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1577150068419395</v>
+        <v>0.1601855243584193</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.12082692037744</v>
+        <v>0.1200992471023079</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05896805361976536</v>
+        <v>0.05829125111706625</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1034420064433872</v>
+        <v>0.1003637049426452</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.09012659952259459</v>
+        <v>0.08480284568407788</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-2.528440851884906</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-4.69742130151396</v>
+        <v>-4.697421301513982</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.194552436167319</v>
@@ -1306,7 +1306,7 @@
         <v>1.715365094746379</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.5612837004003612</v>
+        <v>-0.561283700400339</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.326433072073264</v>
+        <v>-6.554197321408389</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.713815169379115</v>
+        <v>-6.795773595893017</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-9.048458908010209</v>
+        <v>-8.994725108765165</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.313803965604375</v>
+        <v>-2.284975399009734</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6638584856131432</v>
+        <v>0.6348416935139497</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.6149936298326211</v>
+        <v>-0.4174373678693169</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.89031603188311</v>
+        <v>-3.027959174337365</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.957050273783957</v>
+        <v>-1.730055609075444</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.583111969088822</v>
+        <v>-4.026712455893873</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.576495039939999</v>
+        <v>2.120898925634787</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.858349862061214</v>
+        <v>1.737575384337287</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.5084587367605911</v>
+        <v>-0.3577612044140552</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.105507690917813</v>
+        <v>8.58991644457409</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.01685067070859</v>
+        <v>10.94818884218947</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.111350470764062</v>
+        <v>8.581224450500939</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.100826992641204</v>
+        <v>4.147728878667253</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.939451086163052</v>
+        <v>5.021426359011708</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.671629277398844</v>
+        <v>2.44150279344172</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.02915745030610998</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.05416967854464582</v>
+        <v>-0.05416967854464608</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.04378309224093775</v>
@@ -1411,7 +1411,7 @@
         <v>0.02148212869036403</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.007029155904321948</v>
+        <v>-0.00702915590432167</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.07086601451309503</v>
+        <v>-0.07518149414561884</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.0757313181035113</v>
+        <v>-0.07639473553003671</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1018379734282119</v>
+        <v>-0.1010694219573021</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.0306976290098444</v>
+        <v>-0.02997227822417852</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.007326908880542308</v>
+        <v>0.008506724349269641</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.008088888423859684</v>
+        <v>-0.005524056108658517</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.03575986813386144</v>
+        <v>-0.03727694161286467</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.02362381136855845</v>
+        <v>-0.02121072124875025</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.04390572959344191</v>
+        <v>-0.04895094472867838</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.03021726413483592</v>
+        <v>0.02440144434869214</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.0220733476709609</v>
+        <v>0.02074511851095097</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.006179637520599982</v>
+        <v>-0.00421538354847298</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1141609902013462</v>
+        <v>0.1230542260837512</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1556446408894042</v>
+        <v>0.1587046592757524</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1174772119112481</v>
+        <v>0.1234830924012587</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0517198299065682</v>
+        <v>0.05300617414232041</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.06316473570497488</v>
+        <v>0.06425285536622172</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.03520977336750833</v>
+        <v>0.0313833743592714</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>5.003008962427646</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.6956875113301231</v>
+        <v>-0.6956875113301342</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.8887413732702854</v>
@@ -1511,7 +1511,7 @@
         <v>0.9347517731973842</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3.666650106619607</v>
+        <v>3.666650106619629</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.142948603927985</v>
@@ -1520,7 +1520,7 @@
         <v>2.91774123019124</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.599362503837498</v>
+        <v>1.599362503837487</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.773519923966603</v>
+        <v>-4.638072006526603</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.98175652940578</v>
+        <v>-1.339615604033831</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.920608310431202</v>
+        <v>-6.396699838643634</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.217478255338193</v>
+        <v>-5.524506116137882</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.181247440935578</v>
+        <v>-5.943533330513628</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.553268218860054</v>
+        <v>-1.834422385199357</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.477818128588516</v>
+        <v>-3.677093687673807</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.20189121108557</v>
+        <v>-1.878559240924336</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.1150598943903</v>
+        <v>-2.413240391657406</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.971066812820683</v>
+        <v>8.184641618674124</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.71057920452059</v>
+        <v>11.12573369097536</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.683589216375623</v>
+        <v>4.901452451080793</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.391648445388395</v>
+        <v>7.98338446963369</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.79572906112781</v>
+        <v>7.804108673266214</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>9.005590574165456</v>
+        <v>9.538717092119576</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.839597622308738</v>
+        <v>5.690038884867476</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.527573535981137</v>
+        <v>7.28244353970064</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.921881890314337</v>
+        <v>5.681741527579598</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.07016448651863863</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.009756639929388015</v>
+        <v>-0.009756639929388172</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.01456463140013443</v>
@@ -1616,7 +1616,7 @@
         <v>0.01531864661273236</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06008880522763406</v>
+        <v>0.06008880522763442</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.01730440516302459</v>
@@ -1625,7 +1625,7 @@
         <v>0.04417501909934726</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.0242145768180993</v>
+        <v>0.02421457681809913</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.06455756412609419</v>
+        <v>-0.06265849848294823</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.02617793808194239</v>
+        <v>-0.01714847675398808</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.09062925153259029</v>
+        <v>-0.08549322596188096</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.09642336653427243</v>
+        <v>-0.08478780079550549</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.08058673203020615</v>
+        <v>-0.09154658067662412</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.03658851632906974</v>
+        <v>-0.02845803330502934</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.05092898886444216</v>
+        <v>-0.05354477874180489</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.01780168685518192</v>
+        <v>-0.02734686044750436</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.03065136695713491</v>
+        <v>-0.03500648262551258</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1165356781977736</v>
+        <v>0.1192467129497996</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.158594964884575</v>
+        <v>0.1664409140318418</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.0682259004116061</v>
+        <v>0.07302885472201422</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1263673770523276</v>
+        <v>0.1354989393128594</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1370140161761459</v>
+        <v>0.1331261567283664</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1623939950779832</v>
+        <v>0.1670372688371268</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09196998932313853</v>
+        <v>0.0894701506573638</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1192065506113182</v>
+        <v>0.1152087507478612</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.09488965532629624</v>
+        <v>0.08917026199179111</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>7.778624656563771</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>11.90446500999386</v>
+        <v>11.90446500999388</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-6.383806320319525</v>
+        <v>-6.290404530746402</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.832033625961035</v>
+        <v>-2.792748950750084</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.6681157497834691</v>
+        <v>-0.4770327624521961</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.921638311657966</v>
+        <v>2.298782530343148</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>2.455246043563214</v>
+        <v>2.617423311586335</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>10.25790756373816</v>
+        <v>10.49391654697774</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.7061725026233203</v>
+        <v>1.165436736419034</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.889425554836383</v>
+        <v>2.240754898051966</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>7.344684211563603</v>
+        <v>7.571122829493937</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.732542090999276</v>
+        <v>9.363172566427357</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>12.1838066556159</v>
+        <v>11.94670734551643</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12.87190901110597</v>
+        <v>12.04482203238925</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15.90621151751832</v>
+        <v>17.10052272349134</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>17.12543360779725</v>
+        <v>17.36687194077465</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>22.3464560762133</v>
+        <v>22.64408379733575</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>11.69923195324313</v>
+        <v>11.31448454193506</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>12.87119043369159</v>
+        <v>12.82966670995398</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>16.44075619606192</v>
+        <v>16.93700633610555</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>0.1501439061987681</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.2297813503957672</v>
+        <v>0.2297813503957677</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.0938309565178503</v>
+        <v>-0.09355561166297061</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.0405728239582266</v>
+        <v>-0.03983732592424105</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.008655318032400794</v>
+        <v>-0.006152317111476262</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.04213227371953701</v>
+        <v>0.04746107481245718</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.05490499491250108</v>
+        <v>0.05681075255508009</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2223789983825762</v>
+        <v>0.2258147279280952</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01082679180789752</v>
+        <v>0.02183629697348433</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.03789601925333067</v>
+        <v>0.04085538914164967</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.1349077298581817</v>
+        <v>0.1343950838655019</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1660721784630397</v>
+        <v>0.1543516054395549</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2012860981017662</v>
+        <v>0.199940939533888</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.2180772366555878</v>
+        <v>0.1985492895786557</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4190452053048109</v>
+        <v>0.4386227067229145</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.462982529590947</v>
+        <v>0.4697747410394356</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.5966302092753368</v>
+        <v>0.6064016396172444</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2390679732224967</v>
+        <v>0.2358689956714933</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2665092984681072</v>
+        <v>0.2616825407595765</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.3431055468571302</v>
+        <v>0.3495656534541797</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>0.7616067175509278</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>1.703232086763184</v>
+        <v>1.703232086763173</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-1.682160100140445</v>
@@ -1948,7 +1948,7 @@
         <v>2.79464811950973</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>4.298502072731947</v>
+        <v>4.29850207273193</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-11.39607563837282</v>
+        <v>-10.63578944146918</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.913057546651325</v>
+        <v>-3.14452245864391</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.1068482161846433</v>
+        <v>-0.7414327067212221</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-10.03875614251199</v>
+        <v>-8.879028807716358</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-8.067428361047609</v>
+        <v>-6.791597433615141</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-4.859293247609343</v>
+        <v>-4.765419286570582</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-7.117741297892636</v>
+        <v>-7.128853976426456</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.436151248402243</v>
+        <v>-3.099698491655921</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.3009864972468021</v>
+        <v>-0.5688231506125445</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>8.114092205718109</v>
+        <v>8.25685671807115</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>14.81626097751995</v>
+        <v>15.079448218263</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>16.44370066355459</v>
+        <v>15.6992304131995</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.568558162171731</v>
+        <v>6.442599510499049</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.803559579631838</v>
+        <v>8.635300375174729</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>8.280261925222485</v>
+        <v>8.458549763549284</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.36313515507396</v>
+        <v>4.347960991040705</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>9.541577506479507</v>
+        <v>8.556711090033438</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>9.048925969532561</v>
+        <v>9.663232883907074</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.02165489743043405</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04842829676934219</v>
+        <v>0.04842829676934188</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.04269908507058718</v>
@@ -2053,7 +2053,7 @@
         <v>0.07093790762683025</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.109110961355196</v>
+        <v>0.1091109613551956</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2295757098177352</v>
+        <v>-0.2116187253328355</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.06035949300259703</v>
+        <v>-0.06307994454812044</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.002034004621811242</v>
+        <v>-0.01426068267138451</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2521411431029098</v>
+        <v>-0.2263093437872377</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1995861293315402</v>
+        <v>-0.1752087917620888</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1205026412283745</v>
+        <v>-0.1202462351259038</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1647612235810832</v>
+        <v>-0.1704575028240573</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.08501757065083208</v>
+        <v>-0.07433035574337504</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.008747950636043838</v>
+        <v>-0.01289805579097075</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1927749200529785</v>
+        <v>0.193921028963107</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3629897482275232</v>
+        <v>0.3751935975681498</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.415435619927597</v>
+        <v>0.3846443549049278</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1751122470636388</v>
+        <v>0.2051483101434379</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2482488781672676</v>
+        <v>0.2822958826901834</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2734440604533653</v>
+        <v>0.2823198584867047</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1205050498249148</v>
+        <v>0.1200774104325078</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2630442440103635</v>
+        <v>0.2322596897540394</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2522825558506063</v>
+        <v>0.2652889855842984</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>3.374770950508776</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.9691990210782042</v>
+        <v>0.9691990210782264</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0.2970207997099239</v>
@@ -2162,7 +2162,7 @@
         <v>1.693802260807242</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-0.876441827123231</v>
+        <v>-0.8764418271232199</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.722628221167108</v>
+        <v>-2.88864085489619</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.73376569498446</v>
+        <v>-1.670524758181351</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-4.637442914877266</v>
+        <v>-4.593148181167868</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.6465729781685726</v>
+        <v>-0.6925702741390104</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.22268726909344</v>
+        <v>1.183175074588791</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.045504166644385</v>
+        <v>-0.872634597415859</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.014184268480774</v>
+        <v>-1.13322185784184</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.3508442115570128</v>
+        <v>0.2934912833438634</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-2.267265888717223</v>
+        <v>-2.278630119568907</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.8914713927310932</v>
+        <v>0.6843529292768097</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.760501743386155</v>
+        <v>1.834226969289812</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-0.9154125275958658</v>
+        <v>-0.7473865882637319</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.796622360358631</v>
+        <v>3.713749422863735</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>5.495842349595094</v>
+        <v>5.715907040501462</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.038011884262367</v>
+        <v>3.170232681927632</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.825778004775709</v>
+        <v>1.944754091686524</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>3.163975933567038</v>
+        <v>3.186013814407791</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.5377705363798596</v>
+        <v>0.5579760717311121</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.04720619358437846</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01355712647814225</v>
+        <v>0.01355712647814256</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.003824531868740072</v>
@@ -2267,7 +2267,7 @@
         <v>0.02180992284758447</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.01128533658990609</v>
+        <v>-0.01128533658990595</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.03217433957670835</v>
+        <v>-0.03405780629033409</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.02048869902038074</v>
+        <v>-0.01970963954673813</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.05444758878983141</v>
+        <v>-0.05398176577702857</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.008731298046396115</v>
+        <v>-0.009258691063472737</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.01712986973295655</v>
+        <v>0.01659101311388186</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.01443440703581864</v>
+        <v>-0.01193730427161439</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.01299104741514439</v>
+        <v>-0.01447724071076319</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.004508021105585153</v>
+        <v>0.0037850034955283</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.02893763572204559</v>
+        <v>-0.0292171855988454</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.01072051568589563</v>
+        <v>0.008146553613739997</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.02120625860225636</v>
+        <v>0.0222000965195623</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.0110138777435257</v>
+        <v>-0.008979185892102851</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.05403437814755536</v>
+        <v>0.05314669607814954</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.07832544239584843</v>
+        <v>0.08170366761636216</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.04343368394140012</v>
+        <v>0.04531203727852026</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.02364839691484991</v>
+        <v>0.02536413870646092</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.04111454756863969</v>
+        <v>0.04142593589533126</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.006973243637475541</v>
+        <v>0.007280404770885363</v>
       </c>
     </row>
     <row r="52">
